--- a/Ecoders_CRM/Manual_Documents/CRM_Saranya.xlsx
+++ b/Ecoders_CRM/Manual_Documents/CRM_Saranya.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10070" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Scenario" sheetId="1" r:id="rId1"/>
@@ -1628,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
+    <sheetView topLeftCell="B29" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -2022,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H869"/>
   <sheetViews>
-    <sheetView topLeftCell="A808" zoomScale="107" workbookViewId="0">
-      <selection activeCell="F864" sqref="F864"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14315,7 +14315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+    <sheetView topLeftCell="A295" workbookViewId="0">
       <selection activeCell="C314" sqref="C314"/>
     </sheetView>
   </sheetViews>
@@ -16758,7 +16758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/Ecoders_CRM/Manual_Documents/CRM_Saranya.xlsx
+++ b/Ecoders_CRM/Manual_Documents/CRM_Saranya.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\saranya_ecoderrs_crm_project_automation\Ecoders_CRM\ecodersCRM_project_Group\Manual_Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="10068" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="22464" windowHeight="8244" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Scenario" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,8 @@
     <sheet name="TraceablityMatrix" sheetId="3" r:id="rId3"/>
     <sheet name="Defect" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:W27"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -390,7 +386,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,7 +561,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -600,7 +596,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -777,7 +773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1181,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3099,7 +3095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
